--- a/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB71DE33-A6E4-4C4C-BC23-248A2266C289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21799DA0-332E-4197-813B-3A75B53AAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D8A683-FDB0-442D-9FB0-3D5212B1658D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8D5AEB94-D2F3-427B-BAE5-E1E32F81C7F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,111 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>88,61%</t>
   </si>
   <si>
@@ -98,9 +197,6 @@
     <t>93,18%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>11,39%</t>
   </si>
   <si>
@@ -128,64 +224,61 @@
     <t>16,21%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,99 +336,6 @@
   </si>
   <si>
     <t>25,19%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
   </si>
   <si>
     <t>88,95%</t>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D4989B-9FEB-439A-830C-0AF286348198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DADE521-EED3-4019-A115-117E9A794C27}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -893,10 +893,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>90481</v>
+        <v>1174</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -908,85 +908,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>49785</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2767</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>171</v>
-      </c>
-      <c r="N4" s="7">
-        <v>140266</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>514</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11631</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>514</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5119</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>22</v>
-      </c>
-      <c r="N5" s="7">
-        <v>16750</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -995,54 +995,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>102112</v>
+        <v>1688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>54904</v>
+        <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>157016</v>
+        <v>3281</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1054,13 +1054,13 @@
         <v>37951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -1069,13 +1069,13 @@
         <v>29793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -1084,19 +1084,19 @@
         <v>67744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1105,13 +1105,13 @@
         <v>3346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1120,13 +1120,13 @@
         <v>1537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -1135,13 +1135,13 @@
         <v>4883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1156,13 +1156,13 @@
         <v>41297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -1171,13 +1171,13 @@
         <v>31330</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -1186,117 +1186,117 @@
         <v>72627</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>104</v>
+      </c>
+      <c r="D10" s="7">
+        <v>90481</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="7">
+        <v>67</v>
+      </c>
+      <c r="I10" s="7">
+        <v>49785</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="7">
+        <v>171</v>
+      </c>
+      <c r="N10" s="7">
+        <v>140266</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="7">
-        <v>41411</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>54</v>
-      </c>
-      <c r="I10" s="7">
-        <v>41193</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>106</v>
-      </c>
-      <c r="N10" s="7">
-        <v>82604</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>8923</v>
+        <v>11631</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5119</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="7">
+        <v>22</v>
+      </c>
+      <c r="N11" s="7">
+        <v>16750</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8442</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>21</v>
-      </c>
-      <c r="N11" s="7">
-        <v>17365</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1305,150 +1305,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7">
-        <v>50334</v>
+        <v>102112</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I12" s="7">
-        <v>49635</v>
+        <v>54904</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="N12" s="7">
-        <v>99969</v>
+        <v>157016</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>1174</v>
+        <v>47937</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>52</v>
+      </c>
+      <c r="I13" s="7">
+        <v>46456</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="7">
+        <v>103</v>
+      </c>
+      <c r="N13" s="7">
+        <v>94392</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2767</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>514</v>
+        <v>2779</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6609</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>9388</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>514</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -1460,49 +1460,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>1688</v>
+        <v>50716</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="I15" s="7">
-        <v>1593</v>
+        <v>53065</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="N15" s="7">
-        <v>3281</v>
+        <v>103780</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,10 +1513,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>47937</v>
+        <v>41411</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -1528,10 +1528,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>46456</v>
+        <v>41193</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -1543,10 +1543,10 @@
         <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N16" s="7">
-        <v>94392</v>
+        <v>82604</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -1561,13 +1561,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>2779</v>
+        <v>8923</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -1579,10 +1579,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>6609</v>
+        <v>8442</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -1594,10 +1594,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>9388</v>
+        <v>17365</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -1615,49 +1615,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7">
-        <v>50716</v>
+        <v>50334</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I18" s="7">
-        <v>53065</v>
+        <v>49635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="N18" s="7">
-        <v>103780</v>
+        <v>99969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,7 +1689,7 @@
         <v>168820</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>103</v>
@@ -1716,7 +1716,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>33</v>
@@ -1740,7 +1740,7 @@
         <v>21707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
@@ -1776,13 +1776,13 @@
         <v>246147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>251</v>
@@ -1791,13 +1791,13 @@
         <v>190527</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -1806,13 +1806,13 @@
         <v>436674</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21799DA0-332E-4197-813B-3A75B53AAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED210547-E429-400B-AE9F-D3B66DD4205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8D5AEB94-D2F3-427B-BAE5-E1E32F81C7F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0497EC1C-7033-4BA6-AC46-9B41760CD32D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>Menores según frecuencia de situaciones de cyberbulling fuera de tu colegio en 2023 (Tasa respuesta: 27,92%)</t>
   </si>
@@ -68,18 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
@@ -92,298 +110,283 @@
     <t>31,66%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -490,39 +493,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -574,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -685,13 +688,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -700,6 +696,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -764,19 +767,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DADE521-EED3-4019-A115-117E9A794C27}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E6641A-B989-4677-9B81-0DEBB0F94291}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -893,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1174</v>
+        <v>514</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -908,13 +931,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -923,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2767</v>
+        <v>514</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -944,10 +967,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>514</v>
+        <v>1174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -959,13 +982,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -974,19 +997,19 @@
         <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>514</v>
+        <v>2767</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1001,13 +1024,13 @@
         <v>1688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -1016,13 +1039,13 @@
         <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1031,13 +1054,13 @@
         <v>3281</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1048,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>37951</v>
+        <v>3346</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -1063,10 +1086,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>29793</v>
+        <v>1537</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>28</v>
@@ -1078,10 +1101,10 @@
         <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>67744</v>
+        <v>4883</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1099,10 +1122,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>3346</v>
+        <v>37951</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -1114,10 +1137,10 @@
         <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>1537</v>
+        <v>29793</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1129,10 +1152,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="N8" s="7">
-        <v>4883</v>
+        <v>67744</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1156,13 +1179,13 @@
         <v>41297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -1171,13 +1194,13 @@
         <v>31330</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -1186,13 +1209,13 @@
         <v>72627</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1203,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>90481</v>
+        <v>11631</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
@@ -1218,10 +1241,10 @@
         <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>49785</v>
+        <v>5119</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -1233,10 +1256,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>140266</v>
+        <v>16750</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -1254,10 +1277,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7">
-        <v>11631</v>
+        <v>90481</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>53</v>
@@ -1269,10 +1292,10 @@
         <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>5119</v>
+        <v>49785</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -1284,10 +1307,10 @@
         <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="N11" s="7">
-        <v>16750</v>
+        <v>140266</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -1311,13 +1334,13 @@
         <v>102112</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>75</v>
@@ -1326,13 +1349,13 @@
         <v>54904</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>193</v>
@@ -1341,13 +1364,13 @@
         <v>157016</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,10 +1381,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>47937</v>
+        <v>2779</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -1373,10 +1396,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>46456</v>
+        <v>6609</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -1388,10 +1411,10 @@
         <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>94392</v>
+        <v>9388</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>69</v>
@@ -1409,10 +1432,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>2779</v>
+        <v>47937</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -1424,10 +1447,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>6609</v>
+        <v>46456</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -1439,10 +1462,10 @@
         <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="N14" s="7">
-        <v>9388</v>
+        <v>94392</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
@@ -1466,13 +1489,13 @@
         <v>50716</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>62</v>
@@ -1481,13 +1504,13 @@
         <v>53065</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>116</v>
@@ -1496,13 +1519,13 @@
         <v>103780</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,10 +1536,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>41411</v>
+        <v>8923</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -1528,10 +1551,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>41193</v>
+        <v>8442</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -1543,10 +1566,10 @@
         <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>82604</v>
+        <v>17365</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -1564,10 +1587,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>8923</v>
+        <v>41411</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -1579,10 +1602,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>8442</v>
+        <v>41193</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -1594,10 +1617,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="N17" s="7">
-        <v>17365</v>
+        <v>82604</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -1621,13 +1644,13 @@
         <v>50334</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -1636,13 +1659,13 @@
         <v>49635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>127</v>
@@ -1651,13 +1674,13 @@
         <v>99969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,10 +1691,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>218954</v>
+        <v>27193</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>100</v>
@@ -1683,10 +1706,10 @@
         <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>168820</v>
+        <v>21707</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>44</v>
@@ -1698,10 +1721,10 @@
         <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>471</v>
+        <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>387774</v>
+        <v>48900</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>105</v>
@@ -1719,10 +1742,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="D20" s="7">
-        <v>27193</v>
+        <v>218954</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>108</v>
@@ -1734,10 +1757,10 @@
         <v>110</v>
       </c>
       <c r="H20" s="7">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="I20" s="7">
-        <v>21707</v>
+        <v>168820</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>53</v>
@@ -1749,10 +1772,10 @@
         <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>65</v>
+        <v>471</v>
       </c>
       <c r="N20" s="7">
-        <v>48900</v>
+        <v>387774</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>113</v>
@@ -1776,13 +1799,13 @@
         <v>246147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>251</v>
@@ -1791,13 +1814,13 @@
         <v>190527</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -1806,13 +1829,18 @@
         <v>436674</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED210547-E429-400B-AE9F-D3B66DD4205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49EF5CB9-B536-44CE-90A0-AE193AF7CD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0497EC1C-7033-4BA6-AC46-9B41760CD32D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{378085EC-4392-4F0A-872A-1582D864C2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>Menores según frecuencia de situaciones de cyberbulling fuera de tu colegio en 2023 (Tasa respuesta: 27,92%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -89,7 +89,7 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>68,34%</t>
+    <t>64,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,178 +107,172 @@
     <t>84,33%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>14,35%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>85,65%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -287,103 +281,103 @@
     <t>17,73%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -798,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E6641A-B989-4677-9B81-0DEBB0F94291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCB6AA-E407-45FC-909C-3342BC157CD0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1390,10 +1384,10 @@
         <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1402,13 +1396,13 @@
         <v>6609</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1417,13 +1411,13 @@
         <v>9388</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1438,13 +1432,13 @@
         <v>47937</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -1453,13 +1447,13 @@
         <v>46456</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -1468,13 +1462,13 @@
         <v>94392</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,7 +1524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1542,13 +1536,13 @@
         <v>8923</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1557,13 +1551,13 @@
         <v>8442</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -1572,13 +1566,13 @@
         <v>17365</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1587,13 @@
         <v>41411</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -1608,13 +1602,13 @@
         <v>41193</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -1623,13 +1617,13 @@
         <v>82604</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,13 +1691,13 @@
         <v>27193</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -1715,10 +1709,10 @@
         <v>44</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -1727,13 +1721,13 @@
         <v>48900</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,13 +1742,13 @@
         <v>218954</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>219</v>
@@ -1766,10 +1760,10 @@
         <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -1778,13 +1772,13 @@
         <v>387774</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,7 +1834,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49EF5CB9-B536-44CE-90A0-AE193AF7CD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41829570-F2C5-4E86-A9B5-F15C8F46F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{378085EC-4392-4F0A-872A-1582D864C2C8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1D0BAAA5-80CC-46F8-A5F6-687880EDE9AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
-  <si>
-    <t>Menores según frecuencia de situaciones de cyberbulling fuera de tu colegio en 2023 (Tasa respuesta: 27,92%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="208">
+  <si>
+    <t>Menores según si se han producido situaciones de cyberbulling fuera de su colegio en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,319 +65,598 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -792,8 +1071,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCB6AA-E407-45FC-909C-3342BC157CD0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E277D0B4-5857-4657-A047-B29A478D1AAD}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -910,10 +1189,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>514</v>
+        <v>2095</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -925,240 +1204,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>514</v>
+        <v>2638</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1174</v>
+        <v>689</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2767</v>
+        <v>689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1688</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1593</v>
+        <v>783</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>3281</v>
+        <v>783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>3346</v>
+        <v>3729</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>1537</v>
+        <v>4806</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>4883</v>
+        <v>8536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24659</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="7">
-        <v>37951</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>29793</v>
+        <v>41888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" s="7">
-        <v>67744</v>
+        <v>66548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1167,308 +1444,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>31330</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>72627</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>11631</v>
+        <v>729</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>5119</v>
+        <v>1498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>16750</v>
+        <v>2227</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>90481</v>
+        <v>1159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3255</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4414</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="7">
-        <v>49785</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="7">
-        <v>171</v>
-      </c>
-      <c r="N11" s="7">
-        <v>140266</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
-        <v>118</v>
-      </c>
       <c r="D12" s="7">
-        <v>102112</v>
+        <v>1872</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>622</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2494</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="7">
-        <v>54904</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="7">
-        <v>193</v>
-      </c>
-      <c r="N12" s="7">
-        <v>157016</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>2779</v>
+        <v>8393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12346</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="7">
         <v>29</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6609</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="7">
-        <v>13</v>
-      </c>
       <c r="N13" s="7">
-        <v>9388</v>
+        <v>20739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>47937</v>
+        <v>41479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I14" s="7">
-        <v>46456</v>
+        <v>85056</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="N14" s="7">
-        <v>94392</v>
+        <v>126535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,308 +1752,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>50716</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>53065</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>103780</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>8923</v>
+        <v>832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>8442</v>
+        <v>427</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>17365</v>
+        <v>1259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>41411</v>
+        <v>2239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>41193</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>82604</v>
+        <v>2239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>50334</v>
+        <v>1108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>49635</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="M18" s="7">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>99969</v>
+        <v>1108</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>30995</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
-        <v>33</v>
-      </c>
-      <c r="D19" s="7">
-        <v>27193</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
       <c r="I19" s="7">
-        <v>21707</v>
+        <v>11468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>48900</v>
+        <v>42464</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>218954</v>
+        <v>37008</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="7">
+        <v>54</v>
+      </c>
+      <c r="I20" s="7">
+        <v>53083</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="7">
         <v>106</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="7">
-        <v>219</v>
-      </c>
-      <c r="I20" s="7">
-        <v>168820</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>471</v>
-      </c>
       <c r="N20" s="7">
-        <v>387774</v>
+        <v>90091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,68 +2060,683 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>246147</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>190527</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>536</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>436674</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1738</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1908</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3646</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1564</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3945</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" s="7">
+        <v>7</v>
+      </c>
+      <c r="N23" s="7">
+        <v>5509</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2596</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2388</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6</v>
+      </c>
+      <c r="N24" s="7">
+        <v>4984</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8986</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="7">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7">
+        <v>14972</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" s="7">
+        <v>29</v>
+      </c>
+      <c r="N25" s="7">
+        <v>23958</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7">
+        <v>55</v>
+      </c>
+      <c r="D26" s="7">
+        <v>38599</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="7">
+        <v>43</v>
+      </c>
+      <c r="I26" s="7">
+        <v>33158</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="7">
+        <v>98</v>
+      </c>
+      <c r="N26" s="7">
+        <v>71757</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>75</v>
+      </c>
+      <c r="D27" s="7">
+        <v>53483</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
+        <v>70</v>
+      </c>
+      <c r="I27" s="7">
+        <v>56371</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="7">
+        <v>145</v>
+      </c>
+      <c r="N27" s="7">
+        <v>109854</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5394</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4376</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" s="7">
+        <v>13</v>
+      </c>
+      <c r="N28" s="7">
+        <v>9770</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5652</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7200</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>12852</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>5576</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3793</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9369</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="7">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7">
+        <v>52104</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="7">
+        <v>49</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43592</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" s="7">
+        <v>87</v>
+      </c>
+      <c r="N31" s="7">
+        <v>95697</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7">
+        <v>209</v>
+      </c>
+      <c r="D32" s="7">
+        <v>141745</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" s="7">
+        <v>239</v>
+      </c>
+      <c r="I32" s="7">
+        <v>213186</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" s="7">
+        <v>448</v>
+      </c>
+      <c r="N32" s="7">
+        <v>354931</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="7">
+        <v>307</v>
+      </c>
+      <c r="I33" s="7">
+        <v>272147</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="7">
+        <v>577</v>
+      </c>
+      <c r="N33" s="7">
+        <v>482619</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+  <mergeCells count="9">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
